--- a/data/processed/risk_segmentation_report.xlsx
+++ b/data/processed/risk_segmentation_report.xlsx
@@ -7,72 +7,24 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="FICO_Segmentation" sheetId="1" r:id="rId1"/>
-    <sheet name="DTI_Segmentation" sheetId="2" r:id="rId2"/>
-    <sheet name="Income_Segmentation" sheetId="3" r:id="rId3"/>
+    <sheet name="FICO Risk Profile" sheetId="1" r:id="rId1"/>
+    <sheet name="DTI Risk Profile" sheetId="2" r:id="rId2"/>
+    <sheet name="Income Risk Profile" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
-    <t>FICO Bin</t>
+    <t>Total Volume</t>
   </si>
   <si>
-    <t>Total Loans</t>
+    <t>ODR (Observed Default Rate)</t>
   </si>
   <si>
-    <t>Default Count</t>
-  </si>
-  <si>
-    <t>ODR</t>
-  </si>
-  <si>
-    <t>Excellent (800+)</t>
-  </si>
-  <si>
-    <t>Very Good (740-799)</t>
-  </si>
-  <si>
-    <t>Good (670-739)</t>
-  </si>
-  <si>
-    <t>Subprime/Poor (&lt;670)</t>
-  </si>
-  <si>
-    <t>DTI Quintile</t>
-  </si>
-  <si>
-    <t>Q1 (Lowest DTI)</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5 (Highest DTI)</t>
-  </si>
-  <si>
-    <t>Annual Income Bracket</t>
-  </si>
-  <si>
-    <t>&lt; $50k</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $50k - $100k</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $100k - $150k</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &gt; $150k</t>
+    <t>Volume % of Portfolio</t>
   </si>
 </sst>
 </file>
@@ -430,13 +382,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,64 +398,49 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>3147</v>
       </c>
       <c r="B2">
-        <v>1526</v>
+        <v>0.03209405783285669</v>
       </c>
       <c r="C2">
-        <v>102</v>
-      </c>
-      <c r="D2">
-        <v>0.06684141546526867</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
+        <v>0.0139207134199747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>24968</v>
       </c>
       <c r="B3">
-        <v>12985</v>
+        <v>0.05162608138417174</v>
       </c>
       <c r="C3">
-        <v>1303</v>
-      </c>
-      <c r="D3">
-        <v>0.100346553715826</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
+        <v>0.1104456220749693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>161544</v>
       </c>
       <c r="B4">
-        <v>96065</v>
+        <v>0.1191006784529292</v>
       </c>
       <c r="C4">
-        <v>19224</v>
-      </c>
-      <c r="D4">
-        <v>0.2001145058033623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
+        <v>0.7145877752514752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>36407</v>
       </c>
       <c r="B5">
-        <v>24035</v>
+        <v>0.1732084489246573</v>
       </c>
       <c r="C5">
-        <v>6307</v>
-      </c>
-      <c r="D5">
-        <v>0.2624089868941127</v>
+        <v>0.1610458892535808</v>
       </c>
     </row>
   </sheetData>
@@ -513,15 +450,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -529,78 +466,60 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>9</v>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>45250</v>
       </c>
       <c r="B2">
-        <v>26933</v>
+        <v>0.09107182320441989</v>
       </c>
       <c r="C2">
-        <v>4119</v>
-      </c>
-      <c r="D2">
-        <v>0.1529350610774886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
+        <v>0.2003125318175983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>45122</v>
       </c>
       <c r="B3">
-        <v>26939</v>
+        <v>0.1036523203758699</v>
       </c>
       <c r="C3">
-        <v>4483</v>
-      </c>
-      <c r="D3">
-        <v>0.1664130071643342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>11</v>
+        <v>0.1997459018933408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>45244</v>
       </c>
       <c r="B4">
-        <v>26918</v>
+        <v>0.1179603925382371</v>
       </c>
       <c r="C4">
-        <v>5127</v>
-      </c>
-      <c r="D4">
-        <v>0.1904673452708225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>12</v>
+        <v>0.2002859710398987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>45160</v>
       </c>
       <c r="B5">
-        <v>26905</v>
+        <v>0.1314880425155004</v>
       </c>
       <c r="C5">
-        <v>5932</v>
-      </c>
-      <c r="D5">
-        <v>0.2204794647834975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>13</v>
+        <v>0.1999141201521047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>45121</v>
       </c>
       <c r="B6">
-        <v>26881</v>
+        <v>0.1519691496199109</v>
       </c>
       <c r="C6">
-        <v>7264</v>
-      </c>
-      <c r="D6">
-        <v>0.2702280421115286</v>
+        <v>0.1997414750970575</v>
       </c>
     </row>
   </sheetData>
@@ -610,15 +529,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -626,64 +545,49 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>15</v>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>13093</v>
       </c>
       <c r="B2">
-        <v>38640</v>
+        <v>0.08149392805315818</v>
       </c>
       <c r="C2">
-        <v>8872</v>
-      </c>
-      <c r="D2">
-        <v>0.2296066252587992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>16</v>
+        <v>0.05860814059149772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>33476</v>
       </c>
       <c r="B3">
-        <v>68170</v>
+        <v>0.095919464691122</v>
       </c>
       <c r="C3">
-        <v>13628</v>
-      </c>
-      <c r="D3">
-        <v>0.1999119847440223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>17</v>
+        <v>0.1498484773879919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>112855</v>
       </c>
       <c r="B4">
-        <v>19411</v>
+        <v>0.1204731735412698</v>
       </c>
       <c r="C4">
-        <v>3154</v>
-      </c>
-      <c r="D4">
-        <v>0.1624851888104683</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>18</v>
+        <v>0.5051723597688441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>63975</v>
       </c>
       <c r="B5">
-        <v>8390</v>
+        <v>0.1388980070339977</v>
       </c>
       <c r="C5">
-        <v>1282</v>
-      </c>
-      <c r="D5">
-        <v>0.1528009535160906</v>
+        <v>0.2863710222516663</v>
       </c>
     </row>
   </sheetData>
